--- a/data files/Purchase Order/SINGLA HEALTHCARE.xlsx
+++ b/data files/Purchase Order/SINGLA HEALTHCARE.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69196A2C-E34A-4C52-852F-8A68247C8D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1995" yWindow="2760" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -118,8 +130,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,7 +405,7 @@
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -419,7 +431,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -429,7 +441,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -469,7 +481,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -520,6 +531,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -540,7 +559,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Line 1"/>
+        <xdr:cNvPr id="3" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -570,9 +595,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -610,7 +635,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -644,6 +669,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -678,9 +704,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -853,17 +880,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" customWidth="1"/>
@@ -872,7 +899,7 @@
     <col min="7" max="7" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="31" t="s">
         <v>5</v>
       </c>
@@ -884,21 +911,21 @@
       <c r="H1" s="30"/>
       <c r="I1" s="29"/>
     </row>
-    <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
       <c r="E2" s="30"/>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="49" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="34"/>
       <c r="I2" s="29"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -908,7 +935,7 @@
       <c r="H3" s="35"/>
       <c r="I3" s="33"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>12</v>
       </c>
@@ -920,8 +947,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="54" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="29"/>
@@ -932,7 +959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -941,7 +968,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -951,11 +978,11 @@
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -964,25 +991,25 @@
       <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="50" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="35"/>
       <c r="D9" s="1"/>
       <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75">
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
-      <c r="B10" s="42"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="27"/>
       <c r="D10" s="35"/>
       <c r="E10" s="1"/>
@@ -991,12 +1018,12 @@
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -1005,45 +1032,45 @@
       <c r="D12" s="4"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="43" t="s">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45" t="s">
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="49" customFormat="1" ht="15.75">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75">
+    <row r="15" spans="1:9" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -1057,15 +1084,15 @@
       <c r="G16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="54">
         <v>100</v>
       </c>
-      <c r="I16" s="57">
+      <c r="I16" s="56">
         <f>H16*F16</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -1079,15 +1106,15 @@
       <c r="G17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="54">
         <v>100</v>
       </c>
-      <c r="I17" s="58">
+      <c r="I17" s="57">
         <f t="shared" ref="I17:I19" si="0">H17*F17</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75">
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>3</v>
       </c>
@@ -1101,15 +1128,15 @@
       <c r="G18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="54">
         <v>100</v>
       </c>
-      <c r="I18" s="58">
+      <c r="I18" s="57">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75">
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>4</v>
       </c>
@@ -1123,316 +1150,325 @@
       <c r="G19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="54">
         <v>100</v>
       </c>
-      <c r="I19" s="59">
+      <c r="I19" s="58">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75">
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="E20" s="9"/>
       <c r="F20" s="26"/>
       <c r="G20" s="10"/>
-      <c r="I20" s="58">
-        <f>SUM(I16:I19)</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75">
-      <c r="A21" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="H20" s="54"/>
+      <c r="I20" s="58"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="E21" s="9"/>
       <c r="F21" s="26"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="58">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="4"/>
+      <c r="I21" s="57">
+        <f>SUM(I16:I19)</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="B22" s="4"/>
       <c r="E22" s="9"/>
       <c r="F22" s="26"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56">
-        <v>31500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75">
+      <c r="H22" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="57">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="E23" s="9"/>
       <c r="F23" s="26"/>
       <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75">
+      <c r="H23" s="54"/>
+      <c r="I23" s="55">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="E24" s="9"/>
       <c r="F24" s="26"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75">
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="10"/>
       <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75">
-      <c r="A26" s="4"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="26"/>
       <c r="D26" s="10"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75">
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="26"/>
       <c r="D27" s="10"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75">
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="26"/>
       <c r="D28" s="10"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75">
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="26"/>
       <c r="D29" s="10"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75">
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="26"/>
       <c r="D30" s="10"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75">
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="26"/>
       <c r="D31" s="10"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="25"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="10"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75">
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="26"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="10"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="26"/>
       <c r="D34" s="10"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75">
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="25"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="10"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="26"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="10"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="26"/>
       <c r="D37" s="10"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="26"/>
       <c r="D38" s="10"/>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="25"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="10"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="26"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="10"/>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="26"/>
       <c r="D41" s="10"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75">
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="26"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75">
+      <c r="D42" s="10"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="26"/>
       <c r="D43" s="4"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75">
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="26"/>
       <c r="D44" s="4"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75">
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="26"/>
       <c r="D45" s="4"/>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75">
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="26"/>
       <c r="D46" s="4"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75">
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="26"/>
       <c r="D47" s="4"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75">
-      <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75">
-      <c r="A49" s="10"/>
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="10"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="13"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75">
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
-      <c r="C50" s="14"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="13"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" ht="15.75">
-      <c r="A51" s="6"/>
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
       <c r="B51" s="10"/>
-      <c r="C51" s="15"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.75">
-      <c r="A52" s="28"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
       <c r="B52" s="10"/>
-      <c r="C52" s="11"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.75">
+      <c r="C52" s="15"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="28"/>
       <c r="B53" s="10"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75">
-      <c r="A54" s="18"/>
+      <c r="C53" s="11"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="28"/>
       <c r="B54" s="10"/>
       <c r="C54" s="15"/>
       <c r="D54" s="17"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" ht="15.75">
-      <c r="A55" s="16"/>
-      <c r="B55" s="3"/>
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="15"/>
       <c r="D55" s="17"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" ht="15.75">
-      <c r="A56" s="3"/>
-      <c r="B56" s="19"/>
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="3"/>
       <c r="C56" s="15"/>
-      <c r="D56" s="7"/>
+      <c r="D56" s="17"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="20"/>
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="21"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="22"/>
-      <c r="B59" s="3"/>
-    </row>
-    <row r="63" spans="1:5" ht="15.75">
-      <c r="D63" s="17"/>
-      <c r="E63" s="5"/>
-    </row>
-    <row r="64" spans="1:5" ht="15.75">
-      <c r="D64" s="23"/>
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="20"/>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D64" s="17"/>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="3:5" ht="15.75">
-      <c r="C65" s="24"/>
+    <row r="65" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D65" s="23"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="3:5" ht="15.75">
+    <row r="66" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C66" s="24"/>
       <c r="D66" s="23"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="3:5" ht="15.75">
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+    <row r="67" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C67" s="24"/>
+      <c r="D67" s="23"/>
       <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -1442,24 +1478,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
